--- a/medicine/Sexualité et sexologie/Jeune_et_Jolie_(film)/Jeune_et_Jolie_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Jeune_et_Jolie_(film)/Jeune_et_Jolie_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeune et jolie (stylisé « Jeune &amp; jolie ») est un film dramatique français écrit et réalisé par François Ozon, sorti en 2013.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant l'été, alors qu'elle est en vacances au bord de la mer, Isabelle fête ses 17 ans en famille, en présence aussi de la famille de Peter, un proche de ses parents, dont on apprendra plus tard qu'il est l'amant de sa mère. Elle perd sa virginité avec un jeune Allemand, Félix. Pendant l'acte qu'elle subit très passivement et sans plaisir, elle voit son double regarder la scène de façon impassible. Par la suite, elle se montre très froide avec Félix et ne le recontacte pas. 
 À son retour à Paris, où elle retrouve le chemin du lycée, elle se livre volontairement et secrètement à la prostitution de luxe sous le pseudonyme de Léa, après qu'un homme l'ait contactée à la sortie des cours et lui ait donné son numéro de téléphone. Elle enchaîne les clients, plus ou moins agréables. Parmi eux se distingue Georges, homme plus âgé et qui se montre très attentionné. C'est le seul avec qui elle noue des contacts personnels. Il lui raconte brièvement sa vie : il est marié et a une fille dont il s'est peu occupé quand elle était enfant, et qu'il voit plus régulièrement au théâtre et au cinéma depuis qu'elle est devenue adulte. Georges meurt d'une crise cardiaque alors qu'Isabelle et lui sont ensemble. La jeune fille, prise de panique, s'enfuit. Une enquête est alors ouverte et la police judiciaire la retrouve, révélant sa double vie à la mère d'Isabelle. 
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Jeune et jolie
 Titre international : Young &amp; Beautiful
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marine Vacth : Isabelle
 Géraldine Pailhas : Sylvie, mère d'Isabelle
@@ -648,13 +666,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le titre du film fait référence au magazine français Jeune et Jolie, destiné aux jeunes filles entre quinze et vingt-quatre ans à partir de la fin des années 1980[1].
-Tournage
-Selon Var-Matin, François Ozon et son équipe ont commencé le tournage en juin 2012 au Pradet dans le Var jusqu'en août 2012 à Paris[2]. Quant aux scènes du lycée et de ses alentours, elles ont été tournées à Paris au lycée Henri-IV dans le 5e arrondissement, en plein Quartier latin[3] où le réalisateur a été élève[4].
-Musique
-François Ozon collabore à nouveau avec le compositeur Philippe Rombi pour la musique du film. De plus, il ajoute à la bande son quatre chansons de Françoise Hardy : L'amour d'un garçon (1963), À quoi ça sert (1968), Première rencontre (1973) et Je suis moi (1974) dans les quatre saisons du film pour mieux « synchroniser sa vision romantique avec celle, plus crue, d'une ado d'aujourd'hui »[5]. C'est la troisième fois qu'il utilise ce principe après ses films Gouttes d'eau sur pierres brûlantes et Huit femmes.
-Liste de pistes
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre du film fait référence au magazine français Jeune et Jolie, destiné aux jeunes filles entre quinze et vingt-quatre ans à partir de la fin des années 1980.
 </t>
         </is>
       </c>
@@ -680,18 +698,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Festival et sorties
-Après avoir été présenté au festival de Cannes en « compétition officielle » en mai 2013[6] et au Festival Paris Cinéma en juin 2013, Jeune &amp; jolie est sorti le 21 août 2013.
-Accueil critique
-Le film est généralement bien reçu par la critique française, il obtient un score de 3,7/5 de moyenne sur Allociné[7]. La critique américaine se montre moins enthousiaste malgré des notes correctes, le film obtenant un score Metacritic de 63/100, et 73% sur Rotten Tomatoes[8],[9].
-Box-office
-Au jour de sa sortie nationale, le film se place immédiatement à la première place avec 1 788 entrées à Paris, devant Kick-Ass 2 de Jeff Wadlow (1 078 entrées) et Conjuring : Les Dossiers Warren (The Conjuring) de James Wan (744 entrées)[10].
-Le film réalise finalement un score de 682 484 entrées en France[11].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Var-Matin, François Ozon et son équipe ont commencé le tournage en juin 2012 au Pradet dans le Var jusqu'en août 2012 à Paris. Quant aux scènes du lycée et de ses alentours, elles ont été tournées à Paris au lycée Henri-IV dans le 5e arrondissement, en plein Quartier latin où le réalisateur a été élève.
 </t>
         </is>
       </c>
@@ -717,13 +735,168 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Ozon collabore à nouveau avec le compositeur Philippe Rombi pour la musique du film. De plus, il ajoute à la bande son quatre chansons de Françoise Hardy : L'amour d'un garçon (1963), À quoi ça sert (1968), Première rencontre (1973) et Je suis moi (1974) dans les quatre saisons du film pour mieux « synchroniser sa vision romantique avec celle, plus crue, d'une ado d'aujourd'hui ». C'est la troisième fois qu'il utilise ce principe après ses films Gouttes d'eau sur pierres brûlantes et Huit femmes.
+Liste de pistes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Festival et sorties</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été présenté au festival de Cannes en « compétition officielle » en mai 2013 et au Festival Paris Cinéma en juin 2013, Jeune &amp; jolie est sorti le 21 août 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est généralement bien reçu par la critique française, il obtient un score de 3,7/5 de moyenne sur Allociné. La critique américaine se montre moins enthousiaste malgré des notes correctes, le film obtenant un score Metacritic de 63/100, et 73% sur Rotten Tomatoes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au jour de sa sortie nationale, le film se place immédiatement à la première place avec 1 788 entrées à Paris, devant Kick-Ass 2 de Jeff Wadlow (1 078 entrées) et Conjuring : Les Dossiers Warren (The Conjuring) de James Wan (744 entrées).
+Le film réalise finalement un score de 682 484 entrées en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeune_et_Jolie_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nominations
-Festival de Cannes 2013 : En compétition pour la Palme d'or
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2013 : En compétition pour la Palme d'or
 Festival Paris Cinéma 2013
 Festival international du film de Toronto 2013 : sélection « Special Presentations »
 Festival international du film de Vancouver 2013
